--- a/src/Kooco.Pikachu.Blazor/wwwroot/Templates/ItemTemplate.xlsx
+++ b/src/Kooco.Pikachu.Blazor/wwwroot/Templates/ItemTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>ItemNo</t>
   </si>
@@ -102,9 +102,6 @@
     <t>ShareProfit</t>
   </si>
   <si>
-    <t>Cotton T-Shirt</t>
-  </si>
-  <si>
     <t>100% cotton premium tee</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>TS-RED-M</t>
-  </si>
-  <si>
     <t>INV-001</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>Red cotton medium t-shirt</t>
   </si>
   <si>
-    <t>Blue cotton large t-shirt</t>
-  </si>
-  <si>
-    <t>Black cotton XL t-shirt</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -162,32 +150,42 @@
     <t>Stuff</t>
   </si>
   <si>
-    <t>TS-RED-L</t>
-  </si>
-  <si>
-    <t>TS-RED-XL</t>
-  </si>
-  <si>
     <t>TaxType</t>
   </si>
   <si>
     <t>Taxable</t>
+  </si>
+  <si>
+    <t>Erica T-Shirt1</t>
+  </si>
+  <si>
+    <t>ETS-RED-M</t>
+  </si>
+  <si>
+    <t>Erica T-Shirt</t>
+  </si>
+  <si>
+    <t>ETS-RED-L</t>
+  </si>
+  <si>
+    <t>EricaT-Shirt</t>
+  </si>
+  <si>
+    <t>ETS-RED-XL</t>
+  </si>
+  <si>
+    <t>Red cotton large t-shirt</t>
+  </si>
+  <si>
+    <t>Red cotton XL t-shirt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -211,30 +209,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,12 +521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="28.109375" customWidth="1"/>
@@ -555,97 +536,100 @@
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
     <col min="19" max="19" width="17.44140625" customWidth="1"/>
     <col min="20" max="20" width="16.21875" customWidth="1"/>
     <col min="21" max="21" width="17.5546875" customWidth="1"/>
     <col min="22" max="22" width="20.44140625" customWidth="1"/>
     <col min="23" max="23" width="21.77734375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -654,40 +638,40 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
       </c>
       <c r="N2">
         <v>24.99</v>
@@ -711,25 +695,25 @@
         <v>30</v>
       </c>
       <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB2">
         <v>0.2</v>
@@ -740,40 +724,40 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>24.99</v>
@@ -797,25 +781,25 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>35</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>37</v>
       </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
       <c r="Y3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB3">
         <v>0.2</v>
@@ -826,40 +810,40 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
       </c>
       <c r="N4">
         <v>26.99</v>
@@ -883,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB4">
         <v>0.2</v>
@@ -909,5 +893,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Kooco.Pikachu.Blazor/wwwroot/Templates/ItemTemplate.xlsx
+++ b/src/Kooco.Pikachu.Blazor/wwwroot/Templates/ItemTemplate.xlsx
@@ -19,89 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
-  <si>
-    <t>ItemNo</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ItemBadge</t>
-  </si>
-  <si>
-    <t>ItemBadgeColor</t>
-  </si>
-  <si>
-    <t>DescriptionTitle</t>
-  </si>
-  <si>
-    <t>ItemStyle1</t>
-  </si>
-  <si>
-    <t>ItemStyle2</t>
-  </si>
-  <si>
-    <t>ItemStyle3</t>
-  </si>
-  <si>
-    <t>IsFreeShipping</t>
-  </si>
-  <si>
-    <t>IsReturnable</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>SKU</t>
   </si>
   <si>
-    <t>SellingPrice</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>LimitQuantity</t>
-  </si>
-  <si>
-    <t>SaleableQuantity</t>
-  </si>
-  <si>
-    <t>StockOnHand</t>
-  </si>
-  <si>
-    <t>PreOrderableQuantity</t>
-  </si>
-  <si>
-    <t>SaleablePreOrderQuantity</t>
-  </si>
-  <si>
-    <t>InventoryAccount</t>
-  </si>
-  <si>
-    <t>Attribute1Value</t>
-  </si>
-  <si>
-    <t>Attribute2Value</t>
-  </si>
-  <si>
-    <t>Attribute3Value</t>
-  </si>
-  <si>
-    <t>ItemDetailDescription</t>
-  </si>
-  <si>
-    <t>SortNo</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ShareProfit</t>
-  </si>
-  <si>
     <t>100% cotton premium tee</t>
   </si>
   <si>
@@ -138,9 +60,6 @@
     <t>Red cotton medium t-shirt</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -150,9 +69,6 @@
     <t>Stuff</t>
   </si>
   <si>
-    <t>TaxType</t>
-  </si>
-  <si>
     <t>Taxable</t>
   </si>
   <si>
@@ -178,6 +94,81 @@
   </si>
   <si>
     <t>Red cotton XL t-shirt</t>
+  </si>
+  <si>
+    <t>ItemNo/商品編號</t>
+  </si>
+  <si>
+    <t>ItemName/商品名稱</t>
+  </si>
+  <si>
+    <t>ItemBadge/商品標籤</t>
+  </si>
+  <si>
+    <t>ItemBadgeColor/商品標籤顏色</t>
+  </si>
+  <si>
+    <t>DescriptionTitle/商品敘述標題</t>
+  </si>
+  <si>
+    <t>Description/商品敘述</t>
+  </si>
+  <si>
+    <t>ItemStyle1/商品樣式名稱1</t>
+  </si>
+  <si>
+    <t>ItemStyle2/商品樣式名稱2</t>
+  </si>
+  <si>
+    <t>ItemStyle3/商品樣式名稱3</t>
+  </si>
+  <si>
+    <t>IsFreeShipping/是否免運費</t>
+  </si>
+  <si>
+    <t>IsReturnable/是否允許退貨</t>
+  </si>
+  <si>
+    <t>TaxType/稅別</t>
+  </si>
+  <si>
+    <t>SellingPrice/售價</t>
+  </si>
+  <si>
+    <t>Cost/商品成本</t>
+  </si>
+  <si>
+    <t>LimitQuantity/目前庫存</t>
+  </si>
+  <si>
+    <t>SaleableQuantity/可銷售數量</t>
+  </si>
+  <si>
+    <t>StockOnHand/預售數量</t>
+  </si>
+  <si>
+    <t>PreOrderableQuantity/可預售數量</t>
+  </si>
+  <si>
+    <t>SaleablePreOrderQuantity/限購數量</t>
+  </si>
+  <si>
+    <t>InventoryAccount/倉庫名稱</t>
+  </si>
+  <si>
+    <t>Attribute1Value/商品樣式1選項</t>
+  </si>
+  <si>
+    <t>Attribute2Value/商品樣式2選項</t>
+  </si>
+  <si>
+    <t>Attribute3Value/ 商品樣式3選項</t>
+  </si>
+  <si>
+    <t>ItemDetailDescription/商品規格敘述</t>
+  </si>
+  <si>
+    <t>SortNo/排序</t>
   </si>
 </sst>
 </file>
@@ -519,159 +510,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="13" max="14" width="19.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.21875" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" customWidth="1"/>
-    <col min="22" max="22" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" customWidth="1"/>
+    <col min="17" max="17" width="30" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="19" width="31.5546875" customWidth="1"/>
+    <col min="20" max="20" width="40.44140625" customWidth="1"/>
+    <col min="21" max="21" width="30.5546875" customWidth="1"/>
+    <col min="22" max="22" width="34.77734375" customWidth="1"/>
     <col min="23" max="23" width="21.77734375" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="24" max="24" width="27.5546875" customWidth="1"/>
     <col min="25" max="25" width="27.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>24.99</v>
@@ -680,84 +672,78 @@
         <v>12.5</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>200</v>
       </c>
       <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
         <v>150</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>50</v>
       </c>
-      <c r="T2">
-        <v>30</v>
-      </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>24.99</v>
@@ -766,84 +752,78 @@
         <v>12.5</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q3">
         <v>200</v>
       </c>
       <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
         <v>120</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>50</v>
       </c>
-      <c r="T3">
-        <v>30</v>
-      </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AA3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>26.99</v>
@@ -852,43 +832,37 @@
         <v>13.5</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q4">
         <v>100</v>
       </c>
       <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
         <v>80</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>20</v>
       </c>
-      <c r="T4">
-        <v>15</v>
-      </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Z4">
         <v>3</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
